--- a/ReportQ1/ExportSheet_Q1.xlsx
+++ b/ReportQ1/ExportSheet_Q1.xlsx
@@ -1,23 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workstation\Dropbox\DataCenter\GHTK\GHTK_Reports\ReportQ1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C009AF-C633-4726-ABC0-524A6759EE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart" sheetId="1" r:id="rId1"/>
     <sheet name="Dately" sheetId="2" r:id="rId2"/>
     <sheet name="DatelyCart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>TotalVolume</t>
+  </si>
+  <si>
+    <t>TotalSuccess</t>
+  </si>
+  <si>
+    <t>TotalDelay</t>
+  </si>
+  <si>
+    <t>TotalReturned</t>
+  </si>
+  <si>
+    <t>RatioSuccess</t>
+  </si>
+  <si>
+    <t>CTVHT</t>
+  </si>
+  <si>
+    <t>PARTIME</t>
+  </si>
+  <si>
+    <t>PARTIME T</t>
+  </si>
+  <si>
+    <t>SG17.22A</t>
+  </si>
+  <si>
+    <t>SG17.22B</t>
+  </si>
+  <si>
+    <t>SG17.22C</t>
+  </si>
+  <si>
+    <t>SG17.22D</t>
+  </si>
+  <si>
+    <t>SG17.22E</t>
+  </si>
+  <si>
+    <t>SG17.22F</t>
+  </si>
+  <si>
+    <t>SG17.22G</t>
+  </si>
+  <si>
+    <t>SG17.22H</t>
+  </si>
+  <si>
+    <t>SG17.22I</t>
+  </si>
+  <si>
+    <t>SG17.22K</t>
+  </si>
+  <si>
+    <t>DatelyStamp</t>
+  </si>
+  <si>
+    <t>TotalVolume_Dately</t>
+  </si>
+  <si>
+    <t>TotalDelay_Dately</t>
+  </si>
+  <si>
+    <t>TotalSuccess_Dately</t>
+  </si>
+  <si>
+    <t>TotalReturned_Dately</t>
+  </si>
+  <si>
+    <t>Ratio_Success_Dately</t>
+  </si>
+  <si>
+    <t>14-12-19</t>
+  </si>
+  <si>
+    <t>15-12-19</t>
+  </si>
+  <si>
+    <t>16-12-19</t>
+  </si>
+  <si>
+    <t>17-12-19</t>
+  </si>
+  <si>
+    <t>18-12-19</t>
+  </si>
+  <si>
+    <t>19-12-19</t>
+  </si>
+  <si>
+    <t>20-12-19</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +172,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -111,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -143,9 +258,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,6 +310,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,50 +503,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cart</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TotalVolume</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TotalSuccess</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TotalDelay</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TotalReturned</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RatioSuccess</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4075</v>
@@ -410,14 +552,12 @@
         <v>151</v>
       </c>
       <c r="F2">
-        <v>0.7266257668711656</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.72662576687116565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2249</v>
@@ -432,14 +572,12 @@
         <v>80</v>
       </c>
       <c r="F3">
-        <v>0.7821253890618053</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.78212538906180529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>634</v>
@@ -454,14 +592,12 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>0.501577287066246</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.50157728706624605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>5135</v>
@@ -476,14 +612,12 @@
         <v>116</v>
       </c>
       <c r="F5">
-        <v>0.8741966893865628</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+        <v>0.87419668938656281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>9996</v>
@@ -501,11 +635,9 @@
         <v>0.8314325730292117</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>19260</v>
@@ -520,14 +652,12 @@
         <v>415</v>
       </c>
       <c r="F7">
-        <v>0.7752336448598131</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+        <v>0.77523364485981305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>6562</v>
@@ -542,14 +672,12 @@
         <v>139</v>
       </c>
       <c r="F8">
-        <v>0.8689423956110942</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.86894239561109421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>5326</v>
@@ -564,14 +692,12 @@
         <v>104</v>
       </c>
       <c r="F9">
-        <v>0.7944048066090875</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+        <v>0.79440480660908752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1582</v>
@@ -586,14 +712,12 @@
         <v>55</v>
       </c>
       <c r="F10">
-        <v>0.7604298356510746</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.76042983565107458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
         <v>3970</v>
@@ -608,14 +732,12 @@
         <v>109</v>
       </c>
       <c r="F11">
-        <v>0.8468513853904283</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+        <v>0.84685138539042826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1803</v>
@@ -633,11 +755,9 @@
         <v>0.6511369938990571</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
         <v>3576</v>
@@ -652,14 +772,12 @@
         <v>89</v>
       </c>
       <c r="F13">
-        <v>0.8699664429530202</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+        <v>0.86996644295302017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1750</v>
@@ -674,7 +792,7 @@
         <v>59</v>
       </c>
       <c r="F14">
-        <v>0.8554285714285714</v>
+        <v>0.85542857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -683,50 +801,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DatelyStamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TotalVolume_Dately</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TotalDelay_Dately</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TotalSuccess_Dately</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TotalReturned_Dately</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ratio_Success_Dately</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>9295</v>
@@ -741,14 +847,12 @@
         <v>215</v>
       </c>
       <c r="F2">
-        <v>0.5203873050026896</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>15-12-19</t>
-        </is>
+        <v>0.52038730500268959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3">
         <v>323</v>
@@ -763,14 +867,12 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <v>0.7058823529411765</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
         <v>14771</v>
@@ -785,14 +887,12 @@
         <v>222</v>
       </c>
       <c r="F4">
-        <v>0.8921535441066956</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
+        <v>0.89215354410669556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
       </c>
       <c r="B5">
         <v>12212</v>
@@ -807,14 +907,12 @@
         <v>292</v>
       </c>
       <c r="F5">
-        <v>0.856043236161153</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
+        <v>0.85604323616115297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
       </c>
       <c r="B6">
         <v>11664</v>
@@ -829,14 +927,12 @@
         <v>327</v>
       </c>
       <c r="F6">
-        <v>0.8374485596707819</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
+        <v>0.83744855967078191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
       </c>
       <c r="B7">
         <v>9476</v>
@@ -851,14 +947,12 @@
         <v>265</v>
       </c>
       <c r="F7">
-        <v>0.8329463908822288</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
+        <v>0.83294639088222877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>8177</v>
@@ -873,7 +967,7 @@
         <v>265</v>
       </c>
       <c r="F8">
-        <v>0.81827075944723</v>
+        <v>0.81827075944723004</v>
       </c>
     </row>
   </sheetData>
@@ -882,60 +976,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DatelyStamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cart</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TotalVolume_Dately</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TotalDelay_Dately</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TotalSuccess_Dately</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TotalReturned_Dately</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ratio_Success_Dately</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>323</v>
@@ -950,19 +1026,15 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>355</v>
@@ -977,19 +1049,15 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>0.7577464788732394</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.75774647887323943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>61</v>
@@ -1004,19 +1072,15 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>0.3278688524590164</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.32786885245901642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>817</v>
@@ -1031,19 +1095,15 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>0.8078335373317014</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+        <v>0.80783353733170138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1407</v>
@@ -1058,19 +1118,15 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>0.4278606965174129</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+        <v>0.42786069651741288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2953</v>
@@ -1088,16 +1144,12 @@
         <v>0.3037588892651541</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
         <v>831</v>
@@ -1112,19 +1164,15 @@
         <v>18</v>
       </c>
       <c r="G8">
-        <v>0.6979542719614922</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.69795427196149218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
         <v>703</v>
@@ -1139,19 +1187,15 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>0.4153627311522048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+        <v>0.41536273115220479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>265</v>
@@ -1166,19 +1210,15 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>0.6679245283018868</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.66792452830188676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>607</v>
@@ -1193,19 +1233,15 @@
         <v>22</v>
       </c>
       <c r="G11">
-        <v>0.7331136738056013</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+        <v>0.73311367380560133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
       <c r="C12">
         <v>246</v>
@@ -1220,19 +1256,15 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+        <v>0.46341463414634149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13">
         <v>467</v>
@@ -1247,19 +1279,15 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>0.7987152034261242</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>14-12-19</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+        <v>0.79871520342612423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14">
         <v>260</v>
@@ -1277,16 +1305,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15-12-19</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
         <v>134</v>
@@ -1301,19 +1325,15 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5447761194029851</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>15-12-19</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+        <v>0.54477611940298509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>72</v>
@@ -1328,19 +1348,15 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8194444444444444</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>15-12-19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
         <v>117</v>
@@ -1355,19 +1371,15 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>0.8205128205128205</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+        <v>0.82051282051282048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="C18">
         <v>1017</v>
@@ -1382,19 +1394,15 @@
         <v>29</v>
       </c>
       <c r="G18">
-        <v>0.7718780727630286</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.77187807276302856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19">
         <v>464</v>
@@ -1409,19 +1417,15 @@
         <v>13</v>
       </c>
       <c r="G19">
-        <v>0.7650862068965517</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.76508620689655171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20">
         <v>175</v>
@@ -1436,19 +1440,15 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.45714285714285707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
       <c r="C21">
         <v>1055</v>
@@ -1463,19 +1463,15 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0.9289099526066351</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+        <v>0.92890995260663511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2215</v>
@@ -1490,19 +1486,15 @@
         <v>22</v>
       </c>
       <c r="G22">
-        <v>0.9354401805869075</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+        <v>0.93544018058690748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
       </c>
       <c r="C23">
         <v>4235</v>
@@ -1517,19 +1509,15 @@
         <v>53</v>
       </c>
       <c r="G23">
-        <v>0.9088547815820543</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+        <v>0.90885478158205435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
       </c>
       <c r="C24">
         <v>1534</v>
@@ -1544,19 +1532,15 @@
         <v>27</v>
       </c>
       <c r="G24">
-        <v>0.9276401564537158</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.92764015645371578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
       </c>
       <c r="C25">
         <v>1293</v>
@@ -1574,16 +1558,12 @@
         <v>0.9156999226604795</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
       </c>
       <c r="C26">
         <v>331</v>
@@ -1598,19 +1578,15 @@
         <v>7</v>
       </c>
       <c r="G26">
-        <v>0.8700906344410876</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.87009063444108758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
       <c r="C27">
         <v>911</v>
@@ -1625,19 +1601,15 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>0.9045005488474204</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+        <v>0.90450054884742037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
       </c>
       <c r="C28">
         <v>324</v>
@@ -1652,19 +1624,15 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>0.8055555555555556</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+        <v>0.80555555555555558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
       </c>
       <c r="C29">
         <v>833</v>
@@ -1679,19 +1647,15 @@
         <v>13</v>
       </c>
       <c r="G29">
-        <v>0.8955582232893158</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>16-12-19</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+        <v>0.89555822328931578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
       </c>
       <c r="C30">
         <v>384</v>
@@ -1706,19 +1670,15 @@
         <v>15</v>
       </c>
       <c r="G30">
-        <v>0.8619791666666666</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+        <v>0.86197916666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
         <v>804</v>
@@ -1733,19 +1693,15 @@
         <v>26</v>
       </c>
       <c r="G31">
-        <v>0.753731343283582</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.75373134328358204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32">
         <v>357</v>
@@ -1760,19 +1716,15 @@
         <v>16</v>
       </c>
       <c r="G32">
-        <v>0.8095238095238095</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
       </c>
       <c r="C33">
         <v>93</v>
@@ -1787,19 +1739,15 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>0.5483870967741935</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.54838709677419351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
       </c>
       <c r="C34">
         <v>910</v>
@@ -1814,19 +1762,15 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>0.8945054945054945</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+        <v>0.89450549450549455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
       </c>
       <c r="C35">
         <v>1989</v>
@@ -1844,16 +1788,12 @@
         <v>0.9145299145299145</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
       </c>
       <c r="C36">
         <v>3717</v>
@@ -1871,16 +1811,12 @@
         <v>0.8601022329835889</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
       </c>
       <c r="C37">
         <v>1065</v>
@@ -1895,19 +1831,15 @@
         <v>30</v>
       </c>
       <c r="G37">
-        <v>0.8769953051643192</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.87699530516431923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
       </c>
       <c r="C38">
         <v>939</v>
@@ -1922,19 +1854,15 @@
         <v>21</v>
       </c>
       <c r="G38">
-        <v>0.8274760383386581</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+        <v>0.82747603833865813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
       </c>
       <c r="C39">
         <v>317</v>
@@ -1949,19 +1877,15 @@
         <v>8</v>
       </c>
       <c r="G39">
-        <v>0.8296529968454258</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.82965299684542582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
       </c>
       <c r="C40">
         <v>653</v>
@@ -1976,19 +1900,15 @@
         <v>18</v>
       </c>
       <c r="G40">
-        <v>0.8637059724349158</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+        <v>0.86370597243491576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
       </c>
       <c r="C41">
         <v>359</v>
@@ -2006,16 +1926,12 @@
         <v>0.6629526462395543</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
       </c>
       <c r="C42">
         <v>688</v>
@@ -2030,19 +1946,15 @@
         <v>15</v>
       </c>
       <c r="G42">
-        <v>0.8997093023255814</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>17-12-19</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+        <v>0.89970930232558144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
       </c>
       <c r="C43">
         <v>321</v>
@@ -2057,19 +1969,15 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <v>0.881619937694704</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+        <v>0.88161993769470404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
       <c r="C44">
         <v>880</v>
@@ -2084,19 +1992,15 @@
         <v>45</v>
       </c>
       <c r="G44">
-        <v>0.7454545454545455</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.74545454545454548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45">
         <v>403</v>
@@ -2111,19 +2015,15 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <v>0.7692307692307693</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
       </c>
       <c r="C46">
         <v>158</v>
@@ -2138,19 +2038,15 @@
         <v>5</v>
       </c>
       <c r="G46">
-        <v>0.5379746835443038</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.53797468354430378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
       </c>
       <c r="C47">
         <v>845</v>
@@ -2165,19 +2061,15 @@
         <v>25</v>
       </c>
       <c r="G47">
-        <v>0.8627218934911243</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+        <v>0.86272189349112427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
       </c>
       <c r="C48">
         <v>1686</v>
@@ -2192,19 +2084,15 @@
         <v>40</v>
       </c>
       <c r="G48">
-        <v>0.8457888493475683</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+        <v>0.84578884934756826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
       </c>
       <c r="C49">
         <v>3454</v>
@@ -2219,19 +2107,15 @@
         <v>78</v>
       </c>
       <c r="G49">
-        <v>0.8595830920671685</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+        <v>0.85958309206716854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
       </c>
       <c r="C50">
         <v>1241</v>
@@ -2246,19 +2130,15 @@
         <v>21</v>
       </c>
       <c r="G50">
-        <v>0.895245769540693</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.89524576954069301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
       </c>
       <c r="C51">
         <v>963</v>
@@ -2273,19 +2153,15 @@
         <v>22</v>
       </c>
       <c r="G51">
-        <v>0.8234683281412254</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+        <v>0.82346832814122539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
       </c>
       <c r="C52">
         <v>186</v>
@@ -2300,19 +2176,15 @@
         <v>10</v>
       </c>
       <c r="G52">
-        <v>0.7956989247311828</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.79569892473118276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
       </c>
       <c r="C53">
         <v>602</v>
@@ -2327,19 +2199,15 @@
         <v>17</v>
       </c>
       <c r="G53">
-        <v>0.8621262458471761</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+        <v>0.86212624584717612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
       </c>
       <c r="C54">
         <v>383</v>
@@ -2357,16 +2225,12 @@
         <v>0.6866840731070496</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
       </c>
       <c r="C55">
         <v>591</v>
@@ -2381,19 +2245,15 @@
         <v>16</v>
       </c>
       <c r="G55">
-        <v>0.8730964467005076</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>18-12-19</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+        <v>0.87309644670050757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
       </c>
       <c r="C56">
         <v>272</v>
@@ -2408,19 +2268,15 @@
         <v>10</v>
       </c>
       <c r="G56">
-        <v>0.8933823529411765</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+        <v>0.89338235294117652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>541</v>
@@ -2435,19 +2291,15 @@
         <v>14</v>
       </c>
       <c r="G57">
-        <v>0.7449168207024029</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.74491682070240295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58">
         <v>370</v>
@@ -2462,19 +2314,15 @@
         <v>10</v>
       </c>
       <c r="G58">
-        <v>0.827027027027027</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.82702702702702702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
       </c>
       <c r="C59">
         <v>97</v>
@@ -2489,19 +2337,15 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>0.5567010309278351</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.55670103092783507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
       </c>
       <c r="C60">
         <v>794</v>
@@ -2516,19 +2360,15 @@
         <v>17</v>
       </c>
       <c r="G60">
-        <v>0.8702770780856424</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+        <v>0.87027707808564236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
       </c>
       <c r="C61">
         <v>1502</v>
@@ -2546,16 +2386,12 @@
         <v>0.8868175765645806</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
       </c>
       <c r="C62">
         <v>2619</v>
@@ -2570,19 +2406,15 @@
         <v>69</v>
       </c>
       <c r="G62">
-        <v>0.8239786177930508</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+        <v>0.82397861779305082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
       </c>
       <c r="C63">
         <v>970</v>
@@ -2597,19 +2429,15 @@
         <v>27</v>
       </c>
       <c r="G63">
-        <v>0.8711340206185567</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.87113402061855671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
       </c>
       <c r="C64">
         <v>770</v>
@@ -2624,19 +2452,15 @@
         <v>20</v>
       </c>
       <c r="G64">
-        <v>0.8298701298701299</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+        <v>0.82987012987012987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
       </c>
       <c r="C65">
         <v>226</v>
@@ -2651,19 +2475,15 @@
         <v>9</v>
       </c>
       <c r="G65">
-        <v>0.6946902654867256</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.69469026548672563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
       </c>
       <c r="C66">
         <v>581</v>
@@ -2678,19 +2498,15 @@
         <v>19</v>
       </c>
       <c r="G66">
-        <v>0.8657487091222031</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+        <v>0.86574870912220314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
       </c>
       <c r="C67">
         <v>255</v>
@@ -2705,19 +2521,15 @@
         <v>13</v>
       </c>
       <c r="G67">
-        <v>0.6196078431372549</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+        <v>0.61960784313725492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
       </c>
       <c r="C68">
         <v>488</v>
@@ -2732,19 +2544,15 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <v>0.8729508196721312</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>19-12-19</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+        <v>0.87295081967213117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
       </c>
       <c r="C69">
         <v>263</v>
@@ -2759,19 +2567,15 @@
         <v>15</v>
       </c>
       <c r="G69">
-        <v>0.8403041825095057</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CTVHT</t>
-        </is>
+        <v>0.84030418250950567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
         <v>376</v>
@@ -2786,19 +2590,15 @@
         <v>24</v>
       </c>
       <c r="G70">
-        <v>0.6675531914893617</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>PARTIME</t>
-        </is>
+        <v>0.66755319148936165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
       </c>
       <c r="C71">
         <v>300</v>
@@ -2813,19 +2613,15 @@
         <v>16</v>
       </c>
       <c r="G71">
-        <v>0.7666666666666667</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>PARTIME T</t>
-        </is>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -2840,19 +2636,15 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>SG17.22A</t>
-        </is>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
       </c>
       <c r="C73">
         <v>714</v>
@@ -2870,16 +2662,12 @@
         <v>0.8613445378151261</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SG17.22B</t>
-        </is>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
       </c>
       <c r="C74">
         <v>1197</v>
@@ -2894,19 +2682,15 @@
         <v>24</v>
       </c>
       <c r="G74">
-        <v>0.885547201336675</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>SG17.22C</t>
-        </is>
+        <v>0.88554720133667497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
       </c>
       <c r="C75">
         <v>2210</v>
@@ -2921,19 +2705,15 @@
         <v>76</v>
       </c>
       <c r="G75">
-        <v>0.8153846153846154</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SG17.22D</t>
-        </is>
+        <v>0.81538461538461537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
       </c>
       <c r="C76">
         <v>921</v>
@@ -2948,19 +2728,15 @@
         <v>16</v>
       </c>
       <c r="G76">
-        <v>0.8783930510314875</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SG17.22E</t>
-        </is>
+        <v>0.87839305103148746</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
       </c>
       <c r="C77">
         <v>658</v>
@@ -2975,19 +2751,15 @@
         <v>16</v>
       </c>
       <c r="G77">
-        <v>0.8297872340425532</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SG17.22F</t>
-        </is>
+        <v>0.82978723404255317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
       </c>
       <c r="C78">
         <v>257</v>
@@ -3002,19 +2774,15 @@
         <v>9</v>
       </c>
       <c r="G78">
-        <v>0.6614785992217899</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SG17.22G</t>
-        </is>
+        <v>0.66147859922178986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
       </c>
       <c r="C79">
         <v>499</v>
@@ -3032,16 +2800,12 @@
         <v>0.8236472945891784</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SG17.22H</t>
-        </is>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
       </c>
       <c r="C80">
         <v>236</v>
@@ -3056,19 +2820,15 @@
         <v>16</v>
       </c>
       <c r="G80">
-        <v>0.5932203389830508</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SG17.22I</t>
-        </is>
+        <v>0.59322033898305082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
       </c>
       <c r="C81">
         <v>509</v>
@@ -3086,16 +2846,12 @@
         <v>0.8467583497053045</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>20-12-19</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>SG17.22K</t>
-        </is>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
       </c>
       <c r="C82">
         <v>250</v>
@@ -3110,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="G82">
-        <v>0.792</v>
+        <v>0.79200000000000004</v>
       </c>
     </row>
   </sheetData>
